--- a/Mifos Automation Excels/Client/4686-RECALC-DISBCHARGE-DISB01JAN2015-10000amount-REPAY01FEB2015-DISB-TOPUP-10000amount-15FEB2015-PREPAY-01MARCH2015.xlsx
+++ b/Mifos Automation Excels/Client/4686-RECALC-DISBCHARGE-DISB01JAN2015-10000amount-REPAY01FEB2015-DISB-TOPUP-10000amount-15FEB2015-PREPAY-01MARCH2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -934,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1084,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -1133,15 +1133,16 @@
       <c r="M1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10">
@@ -1168,8 +1169,9 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1207,15 +1209,16 @@
       <c r="M3" s="9">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1253,11 +1256,12 @@
       <c r="M4" s="9">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9">
         <v>0</v>
       </c>
     </row>
